--- a/EstimatedActiveCasesOverTimeByCounty/2021-02-25.xlsx
+++ b/EstimatedActiveCasesOverTimeByCounty/2021-02-25.xlsx
@@ -12,9 +12,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="340">
   <si>
-    <t>COVID-19 Active Cases by County, 12/11/2020 - 02/24/2021 at 3:00 PM CST</t>
+    <t>COVID-19 Active Cases by County, 12/11/2020 - 02/25/2021 at 3:00 PM CST</t>
   </si>
   <si>
     <t>DISCLAIMER: All data are provisional and are subject to change.</t>
@@ -246,6 +246,9 @@
   </si>
   <si>
     <t>Active Cases 02-23</t>
+  </si>
+  <si>
+    <t>Active Cases 02-24</t>
   </si>
   <si>
     <t/>
@@ -1220,6 +1223,7 @@
     <col min="74" max="74" width="12.0" customWidth="true"/>
     <col min="75" max="75" width="12.0" customWidth="true"/>
     <col min="76" max="76" width="12.0" customWidth="true"/>
+    <col min="77" max="77" width="12.0" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1461,13 +1465,16 @@
       <c r="BX3" t="s" s="10">
         <v>77</v>
       </c>
+      <c r="BY3" t="s" s="10">
+        <v>78</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C4" t="n">
         <v>261.0</v>
@@ -1690,14 +1697,17 @@
       </c>
       <c r="BX4" t="n">
         <v>92.0</v>
+      </c>
+      <c r="BY4" t="n">
+        <v>88.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C5" t="n">
         <v>313.0</v>
@@ -1919,15 +1929,18 @@
         <v>146.0</v>
       </c>
       <c r="BX5" t="n">
+        <v>146.0</v>
+      </c>
+      <c r="BY5" t="n">
         <v>146.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C6" t="n">
         <v>751.0</v>
@@ -2149,15 +2162,18 @@
         <v>397.0</v>
       </c>
       <c r="BX6" t="n">
+        <v>293.0</v>
+      </c>
+      <c r="BY6" t="n">
         <v>293.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C7" t="n">
         <v>103.0</v>
@@ -2380,14 +2396,17 @@
       </c>
       <c r="BX7" t="n">
         <v>48.0</v>
+      </c>
+      <c r="BY7" t="n">
+        <v>44.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C8" t="n">
         <v>45.0</v>
@@ -2609,15 +2628,18 @@
         <v>1.0</v>
       </c>
       <c r="BX8" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BY8" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B9" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C9" t="n">
         <v>32.0</v>
@@ -2840,14 +2862,17 @@
       </c>
       <c r="BX9" t="n">
         <v>0.0</v>
+      </c>
+      <c r="BY9" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B10" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C10" t="n">
         <v>210.0</v>
@@ -3070,14 +3095,17 @@
       </c>
       <c r="BX10" t="n">
         <v>57.0</v>
+      </c>
+      <c r="BY10" t="n">
+        <v>62.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B11" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C11" t="n">
         <v>77.0</v>
@@ -3300,14 +3328,17 @@
       </c>
       <c r="BX11" t="n">
         <v>33.0</v>
+      </c>
+      <c r="BY11" t="n">
+        <v>28.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B12" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C12" t="n">
         <v>118.0</v>
@@ -3530,14 +3561,17 @@
       </c>
       <c r="BX12" t="n">
         <v>8.0</v>
+      </c>
+      <c r="BY12" t="n">
+        <v>16.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C13" t="n">
         <v>46.0</v>
@@ -3760,14 +3794,17 @@
       </c>
       <c r="BX13" t="n">
         <v>18.0</v>
+      </c>
+      <c r="BY13" t="n">
+        <v>22.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B14" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C14" t="n">
         <v>461.0</v>
@@ -3990,14 +4027,17 @@
       </c>
       <c r="BX14" t="n">
         <v>849.0</v>
+      </c>
+      <c r="BY14" t="n">
+        <v>859.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B15" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C15" t="n">
         <v>8.0</v>
@@ -4219,15 +4259,18 @@
         <v>0.0</v>
       </c>
       <c r="BX15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BY15" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B16" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C16" t="n">
         <v>171.0</v>
@@ -4450,14 +4493,17 @@
       </c>
       <c r="BX16" t="n">
         <v>91.0</v>
+      </c>
+      <c r="BY16" t="n">
+        <v>37.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B17" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C17" t="n">
         <v>1639.0</v>
@@ -4680,14 +4726,17 @@
       </c>
       <c r="BX17" t="n">
         <v>425.0</v>
+      </c>
+      <c r="BY17" t="n">
+        <v>399.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B18" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C18" t="n">
         <v>15750.0</v>
@@ -4910,14 +4959,17 @@
       </c>
       <c r="BX18" t="n">
         <v>11736.0</v>
+      </c>
+      <c r="BY18" t="n">
+        <v>11244.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B19" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C19" t="n">
         <v>24.0</v>
@@ -5140,14 +5192,17 @@
       </c>
       <c r="BX19" t="n">
         <v>80.0</v>
+      </c>
+      <c r="BY19" t="n">
+        <v>77.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B20" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C20" t="n">
         <v>5.0</v>
@@ -5369,15 +5424,18 @@
         <v>0.0</v>
       </c>
       <c r="BX20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BY20" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B21" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C21" t="n">
         <v>74.0</v>
@@ -5600,14 +5658,17 @@
       </c>
       <c r="BX21" t="n">
         <v>141.0</v>
+      </c>
+      <c r="BY21" t="n">
+        <v>143.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B22" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C22" t="n">
         <v>482.0</v>
@@ -5830,14 +5891,17 @@
       </c>
       <c r="BX22" t="n">
         <v>507.0</v>
+      </c>
+      <c r="BY22" t="n">
+        <v>491.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B23" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C23" t="n">
         <v>2730.0</v>
@@ -6060,14 +6124,17 @@
       </c>
       <c r="BX23" t="n">
         <v>3611.0</v>
+      </c>
+      <c r="BY23" t="n">
+        <v>3099.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B24" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C24" t="n">
         <v>854.0</v>
@@ -6290,14 +6357,17 @@
       </c>
       <c r="BX24" t="n">
         <v>552.0</v>
+      </c>
+      <c r="BY24" t="n">
+        <v>577.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B25" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C25" t="n">
         <v>182.0</v>
@@ -6519,15 +6589,18 @@
         <v>0.0</v>
       </c>
       <c r="BX25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BY25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B26" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C26" t="n">
         <v>15.0</v>
@@ -6750,14 +6823,17 @@
       </c>
       <c r="BX26" t="n">
         <v>0.0</v>
+      </c>
+      <c r="BY26" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B27" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C27" t="n">
         <v>38.0</v>
@@ -6979,15 +7055,18 @@
         <v>16.0</v>
       </c>
       <c r="BX27" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="BY27" t="n">
         <v>17.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B28" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C28" t="n">
         <v>429.0</v>
@@ -7209,15 +7288,18 @@
         <v>128.0</v>
       </c>
       <c r="BX28" t="n">
+        <v>128.0</v>
+      </c>
+      <c r="BY28" t="n">
         <v>128.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B29" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C29" t="n">
         <v>119.0</v>
@@ -7440,14 +7522,17 @@
       </c>
       <c r="BX29" t="n">
         <v>250.0</v>
+      </c>
+      <c r="BY29" t="n">
+        <v>245.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B30" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C30" t="n">
         <v>311.0</v>
@@ -7670,14 +7755,17 @@
       </c>
       <c r="BX30" t="n">
         <v>494.0</v>
+      </c>
+      <c r="BY30" t="n">
+        <v>479.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B31" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C31" t="n">
         <v>197.0</v>
@@ -7899,15 +7987,18 @@
         <v>499.0</v>
       </c>
       <c r="BX31" t="n">
+        <v>508.0</v>
+      </c>
+      <c r="BY31" t="n">
         <v>508.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B32" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C32" t="n">
         <v>51.0</v>
@@ -8129,15 +8220,18 @@
         <v>54.0</v>
       </c>
       <c r="BX32" t="n">
+        <v>48.0</v>
+      </c>
+      <c r="BY32" t="n">
         <v>48.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B33" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C33" t="n">
         <v>49.0</v>
@@ -8360,14 +8454,17 @@
       </c>
       <c r="BX33" t="n">
         <v>5.0</v>
+      </c>
+      <c r="BY33" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B34" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C34" t="n">
         <v>2029.0</v>
@@ -8590,14 +8687,17 @@
       </c>
       <c r="BX34" t="n">
         <v>4519.0</v>
+      </c>
+      <c r="BY34" t="n">
+        <v>4343.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B35" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C35" t="n">
         <v>71.0</v>
@@ -8820,14 +8920,17 @@
       </c>
       <c r="BX35" t="n">
         <v>169.0</v>
+      </c>
+      <c r="BY35" t="n">
+        <v>171.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B36" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C36" t="n">
         <v>117.0</v>
@@ -9050,14 +9153,17 @@
       </c>
       <c r="BX36" t="n">
         <v>5.0</v>
+      </c>
+      <c r="BY36" t="n">
+        <v>19.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B37" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C37" t="n">
         <v>83.0</v>
@@ -9280,14 +9386,17 @@
       </c>
       <c r="BX37" t="n">
         <v>107.0</v>
+      </c>
+      <c r="BY37" t="n">
+        <v>101.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B38" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C38" t="n">
         <v>133.0</v>
@@ -9510,14 +9619,17 @@
       </c>
       <c r="BX38" t="n">
         <v>0.0</v>
+      </c>
+      <c r="BY38" t="n">
+        <v>13.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B39" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C39" t="n">
         <v>269.0</v>
@@ -9740,14 +9852,17 @@
       </c>
       <c r="BX39" t="n">
         <v>113.0</v>
+      </c>
+      <c r="BY39" t="n">
+        <v>146.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B40" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C40" t="n">
         <v>214.0</v>
@@ -9969,15 +10084,18 @@
         <v>0.0</v>
       </c>
       <c r="BX40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BY40" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B41" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C41" t="n">
         <v>218.0</v>
@@ -10200,14 +10318,17 @@
       </c>
       <c r="BX41" t="n">
         <v>0.0</v>
+      </c>
+      <c r="BY41" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B42" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C42" t="n">
         <v>63.0</v>
@@ -10429,15 +10550,18 @@
         <v>2.0</v>
       </c>
       <c r="BX42" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BY42" t="n">
         <v>2.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B43" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C43" t="n">
         <v>19.0</v>
@@ -10660,14 +10784,17 @@
       </c>
       <c r="BX43" t="n">
         <v>9.0</v>
+      </c>
+      <c r="BY43" t="n">
+        <v>10.0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B44" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C44" t="n">
         <v>38.0</v>
@@ -10889,15 +11016,18 @@
         <v>1.0</v>
       </c>
       <c r="BX44" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BY44" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B45" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C45" t="n">
         <v>12.0</v>
@@ -11120,14 +11250,17 @@
       </c>
       <c r="BX45" t="n">
         <v>0.0</v>
+      </c>
+      <c r="BY45" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B46" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C46" t="n">
         <v>3987.0</v>
@@ -11350,14 +11483,17 @@
       </c>
       <c r="BX46" t="n">
         <v>1181.0</v>
+      </c>
+      <c r="BY46" t="n">
+        <v>1150.0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B47" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C47" t="n">
         <v>104.0</v>
@@ -11580,14 +11716,17 @@
       </c>
       <c r="BX47" t="n">
         <v>4.0</v>
+      </c>
+      <c r="BY47" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B48" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C48" t="n">
         <v>91.0</v>
@@ -11810,14 +11949,17 @@
       </c>
       <c r="BX48" t="n">
         <v>13.0</v>
+      </c>
+      <c r="BY48" t="n">
+        <v>11.0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B49" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C49" t="n">
         <v>667.0</v>
@@ -12040,14 +12182,17 @@
       </c>
       <c r="BX49" t="n">
         <v>299.0</v>
+      </c>
+      <c r="BY49" t="n">
+        <v>246.0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B50" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C50" t="n">
         <v>112.0</v>
@@ -12269,15 +12414,18 @@
         <v>8.0</v>
       </c>
       <c r="BX50" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="BY50" t="n">
         <v>4.0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B51" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C51" t="n">
         <v>11.0</v>
@@ -12499,15 +12647,18 @@
         <v>15.0</v>
       </c>
       <c r="BX51" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="BY51" t="n">
         <v>13.0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B52" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C52" t="n">
         <v>249.0</v>
@@ -12730,14 +12881,17 @@
       </c>
       <c r="BX52" t="n">
         <v>15.0</v>
+      </c>
+      <c r="BY52" t="n">
+        <v>17.0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B53" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C53" t="n">
         <v>318.0</v>
@@ -12960,14 +13114,17 @@
       </c>
       <c r="BX53" t="n">
         <v>485.0</v>
+      </c>
+      <c r="BY53" t="n">
+        <v>543.0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B54" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C54" t="n">
         <v>30.0</v>
@@ -13189,15 +13346,18 @@
         <v>1.0</v>
       </c>
       <c r="BX54" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BY54" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B55" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C55" t="n">
         <v>0.0</v>
@@ -13420,14 +13580,17 @@
       </c>
       <c r="BX55" t="n">
         <v>10.0</v>
+      </c>
+      <c r="BY55" t="n">
+        <v>9.0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B56" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C56" t="n">
         <v>8.0</v>
@@ -13650,14 +13813,17 @@
       </c>
       <c r="BX56" t="n">
         <v>31.0</v>
+      </c>
+      <c r="BY56" t="n">
+        <v>25.0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B57" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C57" t="n">
         <v>40.0</v>
@@ -13880,14 +14046,17 @@
       </c>
       <c r="BX57" t="n">
         <v>0.0</v>
+      </c>
+      <c r="BY57" t="n">
+        <v>28.0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B58" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C58" t="n">
         <v>44.0</v>
@@ -14110,14 +14279,17 @@
       </c>
       <c r="BX58" t="n">
         <v>13.0</v>
+      </c>
+      <c r="BY58" t="n">
+        <v>11.0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B59" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C59" t="n">
         <v>24.0</v>
@@ -14340,14 +14512,17 @@
       </c>
       <c r="BX59" t="n">
         <v>94.0</v>
+      </c>
+      <c r="BY59" t="n">
+        <v>101.0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B60" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C60" t="n">
         <v>25147.0</v>
@@ -14570,14 +14745,17 @@
       </c>
       <c r="BX60" t="n">
         <v>13198.0</v>
+      </c>
+      <c r="BY60" t="n">
+        <v>12621.0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B61" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C61" t="n">
         <v>161.0</v>
@@ -14800,14 +14978,17 @@
       </c>
       <c r="BX61" t="n">
         <v>7.0</v>
+      </c>
+      <c r="BY61" t="n">
+        <v>11.0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B62" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C62" t="n">
         <v>418.0</v>
@@ -15030,14 +15211,17 @@
       </c>
       <c r="BX62" t="n">
         <v>49.0</v>
+      </c>
+      <c r="BY62" t="n">
+        <v>62.0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B63" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C63" t="n">
         <v>25.0</v>
@@ -15260,14 +15444,17 @@
       </c>
       <c r="BX63" t="n">
         <v>39.0</v>
+      </c>
+      <c r="BY63" t="n">
+        <v>38.0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B64" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C64" t="n">
         <v>8213.0</v>
@@ -15490,14 +15677,17 @@
       </c>
       <c r="BX64" t="n">
         <v>11918.0</v>
+      </c>
+      <c r="BY64" t="n">
+        <v>11955.0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B65" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C65" t="n">
         <v>99.0</v>
@@ -15720,14 +15910,17 @@
       </c>
       <c r="BX65" t="n">
         <v>30.0</v>
+      </c>
+      <c r="BY65" t="n">
+        <v>25.0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B66" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C66" t="n">
         <v>19.0</v>
@@ -15950,14 +16143,17 @@
       </c>
       <c r="BX66" t="n">
         <v>0.0</v>
+      </c>
+      <c r="BY66" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B67" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C67" t="n">
         <v>44.0</v>
@@ -16180,14 +16376,17 @@
       </c>
       <c r="BX67" t="n">
         <v>30.0</v>
+      </c>
+      <c r="BY67" t="n">
+        <v>26.0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B68" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C68" t="n">
         <v>47.0</v>
@@ -16410,14 +16609,17 @@
       </c>
       <c r="BX68" t="n">
         <v>6.0</v>
+      </c>
+      <c r="BY68" t="n">
+        <v>8.0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B69" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C69" t="n">
         <v>86.0</v>
@@ -16640,14 +16842,17 @@
       </c>
       <c r="BX69" t="n">
         <v>68.0</v>
+      </c>
+      <c r="BY69" t="n">
+        <v>17.0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B70" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C70" t="n">
         <v>55.0</v>
@@ -16870,14 +17075,17 @@
       </c>
       <c r="BX70" t="n">
         <v>6.0</v>
+      </c>
+      <c r="BY70" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B71" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C71" t="n">
         <v>5924.0</v>
@@ -17100,14 +17308,17 @@
       </c>
       <c r="BX71" t="n">
         <v>1596.0</v>
+      </c>
+      <c r="BY71" t="n">
+        <v>1496.0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B72" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C72" t="n">
         <v>14.0</v>
@@ -17329,15 +17540,18 @@
         <v>0.0</v>
       </c>
       <c r="BX72" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BY72" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B73" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C73" t="n">
         <v>856.0</v>
@@ -17560,14 +17774,17 @@
       </c>
       <c r="BX73" t="n">
         <v>105.0</v>
+      </c>
+      <c r="BY73" t="n">
+        <v>135.0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B74" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C74" t="n">
         <v>37353.0</v>
@@ -17790,14 +18007,17 @@
       </c>
       <c r="BX74" t="n">
         <v>6600.0</v>
+      </c>
+      <c r="BY74" t="n">
+        <v>6404.0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B75" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C75" t="n">
         <v>162.0</v>
@@ -18020,14 +18240,17 @@
       </c>
       <c r="BX75" t="n">
         <v>12.0</v>
+      </c>
+      <c r="BY75" t="n">
+        <v>15.0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B76" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C76" t="n">
         <v>77.0</v>
@@ -18250,14 +18473,17 @@
       </c>
       <c r="BX76" t="n">
         <v>117.0</v>
+      </c>
+      <c r="BY76" t="n">
+        <v>115.0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B77" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C77" t="n">
         <v>151.0</v>
@@ -18480,14 +18706,17 @@
       </c>
       <c r="BX77" t="n">
         <v>14.0</v>
+      </c>
+      <c r="BY77" t="n">
+        <v>15.0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B78" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C78" t="n">
         <v>193.0</v>
@@ -18710,14 +18939,17 @@
       </c>
       <c r="BX78" t="n">
         <v>196.0</v>
+      </c>
+      <c r="BY78" t="n">
+        <v>185.0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B79" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C79" t="n">
         <v>28.0</v>
@@ -18939,15 +19171,18 @@
         <v>0.0</v>
       </c>
       <c r="BX79" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BY79" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C80" t="n">
         <v>107.0</v>
@@ -19170,14 +19405,17 @@
       </c>
       <c r="BX80" t="n">
         <v>20.0</v>
+      </c>
+      <c r="BY80" t="n">
+        <v>36.0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C81" t="n">
         <v>0.0</v>
@@ -19399,15 +19637,18 @@
         <v>0.0</v>
       </c>
       <c r="BX81" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BY81" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B82" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C82" t="n">
         <v>7296.0</v>
@@ -19630,14 +19871,17 @@
       </c>
       <c r="BX82" t="n">
         <v>10751.0</v>
+      </c>
+      <c r="BY82" t="n">
+        <v>10578.0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B83" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C83" t="n">
         <v>24.0</v>
@@ -19860,14 +20104,17 @@
       </c>
       <c r="BX83" t="n">
         <v>102.0</v>
+      </c>
+      <c r="BY83" t="n">
+        <v>103.0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B84" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C84" t="n">
         <v>129.0</v>
@@ -20090,14 +20337,17 @@
       </c>
       <c r="BX84" t="n">
         <v>54.0</v>
+      </c>
+      <c r="BY84" t="n">
+        <v>48.0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B85" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C85" t="n">
         <v>107.0</v>
@@ -20320,14 +20570,17 @@
       </c>
       <c r="BX85" t="n">
         <v>44.0</v>
+      </c>
+      <c r="BY85" t="n">
+        <v>35.0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B86" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C86" t="n">
         <v>162.0</v>
@@ -20550,14 +20803,17 @@
       </c>
       <c r="BX86" t="n">
         <v>8.0</v>
+      </c>
+      <c r="BY86" t="n">
+        <v>7.0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B87" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C87" t="n">
         <v>2026.0</v>
@@ -20780,14 +21036,17 @@
       </c>
       <c r="BX87" t="n">
         <v>4940.0</v>
+      </c>
+      <c r="BY87" t="n">
+        <v>4754.0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B88" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C88" t="n">
         <v>27.0</v>
@@ -21010,14 +21269,17 @@
       </c>
       <c r="BX88" t="n">
         <v>6.0</v>
+      </c>
+      <c r="BY88" t="n">
+        <v>27.0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B89" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C89" t="n">
         <v>126.0</v>
@@ -21240,14 +21502,17 @@
       </c>
       <c r="BX89" t="n">
         <v>34.0</v>
+      </c>
+      <c r="BY89" t="n">
+        <v>30.0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B90" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C90" t="n">
         <v>0.0</v>
@@ -21469,15 +21734,18 @@
         <v>0.0</v>
       </c>
       <c r="BX90" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BY90" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B91" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C91" t="n">
         <v>2.0</v>
@@ -21699,15 +21967,18 @@
         <v>14.0</v>
       </c>
       <c r="BX91" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="BY91" t="n">
         <v>14.0</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B92" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C92" t="n">
         <v>87.0</v>
@@ -21930,14 +22201,17 @@
       </c>
       <c r="BX92" t="n">
         <v>16.0</v>
+      </c>
+      <c r="BY92" t="n">
+        <v>19.0</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B93" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C93" t="n">
         <v>355.0</v>
@@ -22160,14 +22434,17 @@
       </c>
       <c r="BX93" t="n">
         <v>40.0</v>
+      </c>
+      <c r="BY93" t="n">
+        <v>45.0</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B94" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C94" t="n">
         <v>420.0</v>
@@ -22390,14 +22667,17 @@
       </c>
       <c r="BX94" t="n">
         <v>104.0</v>
+      </c>
+      <c r="BY94" t="n">
+        <v>91.0</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B95" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C95" t="n">
         <v>2037.0</v>
@@ -22620,14 +22900,17 @@
       </c>
       <c r="BX95" t="n">
         <v>3188.0</v>
+      </c>
+      <c r="BY95" t="n">
+        <v>3185.0</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B96" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C96" t="n">
         <v>179.0</v>
@@ -22850,14 +23133,17 @@
       </c>
       <c r="BX96" t="n">
         <v>398.0</v>
+      </c>
+      <c r="BY96" t="n">
+        <v>394.0</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B97" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C97" t="n">
         <v>401.0</v>
@@ -23080,14 +23366,17 @@
       </c>
       <c r="BX97" t="n">
         <v>163.0</v>
+      </c>
+      <c r="BY97" t="n">
+        <v>162.0</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B98" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C98" t="n">
         <v>440.0</v>
@@ -23310,14 +23599,17 @@
       </c>
       <c r="BX98" t="n">
         <v>49.0</v>
+      </c>
+      <c r="BY98" t="n">
+        <v>31.0</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B99" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C99" t="n">
         <v>91.0</v>
@@ -23540,14 +23832,17 @@
       </c>
       <c r="BX99" t="n">
         <v>9.0</v>
+      </c>
+      <c r="BY99" t="n">
+        <v>17.0</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B100" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C100" t="n">
         <v>53.0</v>
@@ -23770,14 +24065,17 @@
       </c>
       <c r="BX100" t="n">
         <v>41.0</v>
+      </c>
+      <c r="BY100" t="n">
+        <v>38.0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B101" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C101" t="n">
         <v>112.0</v>
@@ -24000,14 +24298,17 @@
       </c>
       <c r="BX101" t="n">
         <v>28.0</v>
+      </c>
+      <c r="BY101" t="n">
+        <v>41.0</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B102" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C102" t="n">
         <v>13.0</v>
@@ -24229,15 +24530,18 @@
         <v>0.0</v>
       </c>
       <c r="BX102" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BY102" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B103" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C103" t="n">
         <v>1162.0</v>
@@ -24460,14 +24764,17 @@
       </c>
       <c r="BX103" t="n">
         <v>575.0</v>
+      </c>
+      <c r="BY103" t="n">
+        <v>574.0</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B104" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C104" t="n">
         <v>21091.0</v>
@@ -24690,14 +24997,17 @@
       </c>
       <c r="BX104" t="n">
         <v>22649.0</v>
+      </c>
+      <c r="BY104" t="n">
+        <v>21796.0</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B105" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C105" t="n">
         <v>239.0</v>
@@ -24920,14 +25230,17 @@
       </c>
       <c r="BX105" t="n">
         <v>821.0</v>
+      </c>
+      <c r="BY105" t="n">
+        <v>808.0</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B106" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C106" t="n">
         <v>61.0</v>
@@ -25150,14 +25463,17 @@
       </c>
       <c r="BX106" t="n">
         <v>75.0</v>
+      </c>
+      <c r="BY106" t="n">
+        <v>74.0</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B107" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C107" t="n">
         <v>13.0</v>
@@ -25379,15 +25695,18 @@
         <v>1.0</v>
       </c>
       <c r="BX107" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BY107" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B108" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C108" t="n">
         <v>982.0</v>
@@ -25610,14 +25929,17 @@
       </c>
       <c r="BX108" t="n">
         <v>591.0</v>
+      </c>
+      <c r="BY108" t="n">
+        <v>539.0</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B109" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C109" t="n">
         <v>55.0</v>
@@ -25840,14 +26162,17 @@
       </c>
       <c r="BX109" t="n">
         <v>5.0</v>
+      </c>
+      <c r="BY109" t="n">
+        <v>8.0</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B110" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C110" t="n">
         <v>1131.0</v>
@@ -26070,14 +26395,17 @@
       </c>
       <c r="BX110" t="n">
         <v>1791.0</v>
+      </c>
+      <c r="BY110" t="n">
+        <v>1790.0</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B111" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C111" t="n">
         <v>2517.0</v>
@@ -26300,14 +26628,17 @@
       </c>
       <c r="BX111" t="n">
         <v>1874.0</v>
+      </c>
+      <c r="BY111" t="n">
+        <v>1912.0</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B112" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C112" t="n">
         <v>327.0</v>
@@ -26530,14 +26861,17 @@
       </c>
       <c r="BX112" t="n">
         <v>447.0</v>
+      </c>
+      <c r="BY112" t="n">
+        <v>441.0</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B113" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C113" t="n">
         <v>256.0</v>
@@ -26760,14 +27094,17 @@
       </c>
       <c r="BX113" t="n">
         <v>4.0</v>
+      </c>
+      <c r="BY113" t="n">
+        <v>67.0</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B114" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C114" t="n">
         <v>280.0</v>
@@ -26990,14 +27327,17 @@
       </c>
       <c r="BX114" t="n">
         <v>33.0</v>
+      </c>
+      <c r="BY114" t="n">
+        <v>35.0</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B115" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C115" t="n">
         <v>225.0</v>
@@ -27219,15 +27559,18 @@
         <v>183.0</v>
       </c>
       <c r="BX115" t="n">
+        <v>162.0</v>
+      </c>
+      <c r="BY115" t="n">
         <v>162.0</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B116" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C116" t="n">
         <v>54.0</v>
@@ -27450,14 +27793,17 @@
       </c>
       <c r="BX116" t="n">
         <v>78.0</v>
+      </c>
+      <c r="BY116" t="n">
+        <v>73.0</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B117" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C117" t="n">
         <v>594.0</v>
@@ -27680,14 +28026,17 @@
       </c>
       <c r="BX117" t="n">
         <v>58.0</v>
+      </c>
+      <c r="BY117" t="n">
+        <v>51.0</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B118" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C118" t="n">
         <v>64.0</v>
@@ -27910,14 +28259,17 @@
       </c>
       <c r="BX118" t="n">
         <v>18.0</v>
+      </c>
+      <c r="BY118" t="n">
+        <v>15.0</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B119" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C119" t="n">
         <v>321.0</v>
@@ -28139,15 +28491,18 @@
         <v>1332.0</v>
       </c>
       <c r="BX119" t="n">
+        <v>1329.0</v>
+      </c>
+      <c r="BY119" t="n">
         <v>1329.0</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B120" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C120" t="n">
         <v>264.0</v>
@@ -28370,14 +28725,17 @@
       </c>
       <c r="BX120" t="n">
         <v>22.0</v>
+      </c>
+      <c r="BY120" t="n">
+        <v>59.0</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B121" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C121" t="n">
         <v>0.0</v>
@@ -28600,14 +28958,17 @@
       </c>
       <c r="BX121" t="n">
         <v>14.0</v>
+      </c>
+      <c r="BY121" t="n">
+        <v>12.0</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B122" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C122" t="n">
         <v>17.0</v>
@@ -28829,15 +29190,18 @@
         <v>1.0</v>
       </c>
       <c r="BX122" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BY122" t="n">
         <v>2.0</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B123" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C123" t="n">
         <v>58.0</v>
@@ -29060,14 +29424,17 @@
       </c>
       <c r="BX123" t="n">
         <v>21.0</v>
+      </c>
+      <c r="BY123" t="n">
+        <v>22.0</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B124" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C124" t="n">
         <v>138.0</v>
@@ -29290,14 +29657,17 @@
       </c>
       <c r="BX124" t="n">
         <v>25.0</v>
+      </c>
+      <c r="BY124" t="n">
+        <v>26.0</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B125" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C125" t="n">
         <v>19.0</v>
@@ -29520,14 +29890,17 @@
       </c>
       <c r="BX125" t="n">
         <v>26.0</v>
+      </c>
+      <c r="BY125" t="n">
+        <v>23.0</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B126" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C126" t="n">
         <v>2137.0</v>
@@ -29750,14 +30123,17 @@
       </c>
       <c r="BX126" t="n">
         <v>1911.0</v>
+      </c>
+      <c r="BY126" t="n">
+        <v>1874.0</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B127" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C127" t="n">
         <v>42.0</v>
@@ -29979,15 +30355,18 @@
         <v>28.0</v>
       </c>
       <c r="BX127" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="BY127" t="n">
         <v>15.0</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B128" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C128" t="n">
         <v>248.0</v>
@@ -30210,14 +30589,17 @@
       </c>
       <c r="BX128" t="n">
         <v>45.0</v>
+      </c>
+      <c r="BY128" t="n">
+        <v>40.0</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B129" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C129" t="n">
         <v>846.0</v>
@@ -30440,14 +30822,17 @@
       </c>
       <c r="BX129" t="n">
         <v>103.0</v>
+      </c>
+      <c r="BY129" t="n">
+        <v>107.0</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B130" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C130" t="n">
         <v>658.0</v>
@@ -30670,14 +31055,17 @@
       </c>
       <c r="BX130" t="n">
         <v>96.0</v>
+      </c>
+      <c r="BY130" t="n">
+        <v>101.0</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B131" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C131" t="n">
         <v>44.0</v>
@@ -30900,14 +31288,17 @@
       </c>
       <c r="BX131" t="n">
         <v>22.0</v>
+      </c>
+      <c r="BY131" t="n">
+        <v>19.0</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B132" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C132" t="n">
         <v>524.0</v>
@@ -31130,14 +31521,17 @@
       </c>
       <c r="BX132" t="n">
         <v>107.0</v>
+      </c>
+      <c r="BY132" t="n">
+        <v>136.0</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B133" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C133" t="n">
         <v>120.0</v>
@@ -31360,14 +31754,17 @@
       </c>
       <c r="BX133" t="n">
         <v>53.0</v>
+      </c>
+      <c r="BY133" t="n">
+        <v>59.0</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B134" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C134" t="n">
         <v>2.0</v>
@@ -31589,15 +31986,18 @@
         <v>1.0</v>
       </c>
       <c r="BX134" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BY134" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B135" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C135" t="n">
         <v>3.0</v>
@@ -31819,15 +32219,18 @@
         <v>0.0</v>
       </c>
       <c r="BX135" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BY135" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B136" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C136" t="n">
         <v>241.0</v>
@@ -32050,14 +32453,17 @@
       </c>
       <c r="BX136" t="n">
         <v>69.0</v>
+      </c>
+      <c r="BY136" t="n">
+        <v>81.0</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B137" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C137" t="n">
         <v>6.0</v>
@@ -32280,14 +32686,17 @@
       </c>
       <c r="BX137" t="n">
         <v>12.0</v>
+      </c>
+      <c r="BY137" t="n">
+        <v>9.0</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B138" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C138" t="n">
         <v>3.0</v>
@@ -32509,15 +32918,18 @@
         <v>0.0</v>
       </c>
       <c r="BX138" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BY138" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B139" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C139" t="n">
         <v>5.0</v>
@@ -32740,14 +33152,17 @@
       </c>
       <c r="BX139" t="n">
         <v>0.0</v>
+      </c>
+      <c r="BY139" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B140" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C140" t="n">
         <v>108.0</v>
@@ -32970,14 +33385,17 @@
       </c>
       <c r="BX140" t="n">
         <v>33.0</v>
+      </c>
+      <c r="BY140" t="n">
+        <v>31.0</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B141" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C141" t="n">
         <v>4.0</v>
@@ -33199,15 +33617,18 @@
         <v>0.0</v>
       </c>
       <c r="BX141" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BY141" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B142" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C142" t="n">
         <v>410.0</v>
@@ -33430,14 +33851,17 @@
       </c>
       <c r="BX142" t="n">
         <v>276.0</v>
+      </c>
+      <c r="BY142" t="n">
+        <v>265.0</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B143" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C143" t="n">
         <v>354.0</v>
@@ -33660,14 +34084,17 @@
       </c>
       <c r="BX143" t="n">
         <v>11.0</v>
+      </c>
+      <c r="BY143" t="n">
+        <v>33.0</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B144" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C144" t="n">
         <v>113.0</v>
@@ -33890,14 +34317,17 @@
       </c>
       <c r="BX144" t="n">
         <v>282.0</v>
+      </c>
+      <c r="BY144" t="n">
+        <v>262.0</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B145" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C145" t="n">
         <v>76.0</v>
@@ -34120,14 +34550,17 @@
       </c>
       <c r="BX145" t="n">
         <v>12.0</v>
+      </c>
+      <c r="BY145" t="n">
+        <v>10.0</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B146" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C146" t="n">
         <v>47.0</v>
@@ -34350,14 +34783,17 @@
       </c>
       <c r="BX146" t="n">
         <v>24.0</v>
+      </c>
+      <c r="BY146" t="n">
+        <v>26.0</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B147" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C147" t="n">
         <v>123.0</v>
@@ -34580,14 +35016,17 @@
       </c>
       <c r="BX147" t="n">
         <v>263.0</v>
+      </c>
+      <c r="BY147" t="n">
+        <v>245.0</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B148" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C148" t="n">
         <v>98.0</v>
@@ -34809,15 +35248,18 @@
         <v>150.0</v>
       </c>
       <c r="BX148" t="n">
+        <v>153.0</v>
+      </c>
+      <c r="BY148" t="n">
         <v>153.0</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B149" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C149" t="n">
         <v>203.0</v>
@@ -35040,14 +35482,17 @@
       </c>
       <c r="BX149" t="n">
         <v>288.0</v>
+      </c>
+      <c r="BY149" t="n">
+        <v>275.0</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B150" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C150" t="n">
         <v>137.0</v>
@@ -35270,14 +35715,17 @@
       </c>
       <c r="BX150" t="n">
         <v>289.0</v>
+      </c>
+      <c r="BY150" t="n">
+        <v>297.0</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B151" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C151" t="n">
         <v>53.0</v>
@@ -35500,14 +35948,17 @@
       </c>
       <c r="BX151" t="n">
         <v>12.0</v>
+      </c>
+      <c r="BY151" t="n">
+        <v>13.0</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B152" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C152" t="n">
         <v>137.0</v>
@@ -35729,15 +36180,18 @@
         <v>27.0</v>
       </c>
       <c r="BX152" t="n">
+        <v>37.0</v>
+      </c>
+      <c r="BY152" t="n">
         <v>37.0</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B153" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C153" t="n">
         <v>133.0</v>
@@ -35960,14 +36414,17 @@
       </c>
       <c r="BX153" t="n">
         <v>200.0</v>
+      </c>
+      <c r="BY153" t="n">
+        <v>179.0</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B154" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C154" t="n">
         <v>0.0</v>
@@ -36189,15 +36646,18 @@
         <v>0.0</v>
       </c>
       <c r="BX154" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BY154" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B155" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C155" t="n">
         <v>4535.0</v>
@@ -36420,14 +36880,17 @@
       </c>
       <c r="BX155" t="n">
         <v>422.0</v>
+      </c>
+      <c r="BY155" t="n">
+        <v>433.0</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B156" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C156" t="n">
         <v>83.0</v>
@@ -36650,14 +37113,17 @@
       </c>
       <c r="BX156" t="n">
         <v>7.0</v>
+      </c>
+      <c r="BY156" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B157" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C157" t="n">
         <v>41.0</v>
@@ -36880,14 +37346,17 @@
       </c>
       <c r="BX157" t="n">
         <v>22.0</v>
+      </c>
+      <c r="BY157" t="n">
+        <v>25.0</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B158" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C158" t="n">
         <v>1147.0</v>
@@ -37110,14 +37579,17 @@
       </c>
       <c r="BX158" t="n">
         <v>273.0</v>
+      </c>
+      <c r="BY158" t="n">
+        <v>329.0</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B159" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C159" t="n">
         <v>7.0</v>
@@ -37339,15 +37811,18 @@
         <v>4.0</v>
       </c>
       <c r="BX159" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="BY159" t="n">
         <v>5.0</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B160" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C160" t="n">
         <v>62.0</v>
@@ -37570,14 +38045,17 @@
       </c>
       <c r="BX160" t="n">
         <v>144.0</v>
+      </c>
+      <c r="BY160" t="n">
+        <v>148.0</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B161" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C161" t="n">
         <v>14.0</v>
@@ -37800,14 +38278,17 @@
       </c>
       <c r="BX161" t="n">
         <v>110.0</v>
+      </c>
+      <c r="BY161" t="n">
+        <v>109.0</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B162" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C162" t="n">
         <v>88.0</v>
@@ -38029,15 +38510,18 @@
         <v>14.0</v>
       </c>
       <c r="BX162" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="BY162" t="n">
         <v>11.0</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B163" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C163" t="n">
         <v>31.0</v>
@@ -38260,14 +38744,17 @@
       </c>
       <c r="BX163" t="n">
         <v>27.0</v>
+      </c>
+      <c r="BY163" t="n">
+        <v>21.0</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B164" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C164" t="n">
         <v>83.0</v>
@@ -38490,14 +38977,17 @@
       </c>
       <c r="BX164" t="n">
         <v>77.0</v>
+      </c>
+      <c r="BY164" t="n">
+        <v>59.0</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B165" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C165" t="n">
         <v>632.0</v>
@@ -38719,15 +39209,18 @@
         <v>1324.0</v>
       </c>
       <c r="BX165" t="n">
+        <v>1051.0</v>
+      </c>
+      <c r="BY165" t="n">
         <v>1051.0</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B166" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C166" t="n">
         <v>148.0</v>
@@ -38950,14 +39443,17 @@
       </c>
       <c r="BX166" t="n">
         <v>24.0</v>
+      </c>
+      <c r="BY166" t="n">
+        <v>30.0</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B167" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C167" t="n">
         <v>17.0</v>
@@ -39180,14 +39676,17 @@
       </c>
       <c r="BX167" t="n">
         <v>0.0</v>
+      </c>
+      <c r="BY167" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B168" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C168" t="n">
         <v>1564.0</v>
@@ -39410,14 +39909,17 @@
       </c>
       <c r="BX168" t="n">
         <v>913.0</v>
+      </c>
+      <c r="BY168" t="n">
+        <v>549.0</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B169" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C169" t="n">
         <v>123.0</v>
@@ -39640,14 +40142,17 @@
       </c>
       <c r="BX169" t="n">
         <v>16.0</v>
+      </c>
+      <c r="BY169" t="n">
+        <v>19.0</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B170" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C170" t="n">
         <v>56.0</v>
@@ -39870,14 +40375,17 @@
       </c>
       <c r="BX170" t="n">
         <v>67.0</v>
+      </c>
+      <c r="BY170" t="n">
+        <v>65.0</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B171" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C171" t="n">
         <v>83.0</v>
@@ -40100,14 +40608,17 @@
       </c>
       <c r="BX171" t="n">
         <v>6.0</v>
+      </c>
+      <c r="BY171" t="n">
+        <v>12.0</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B172" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C172" t="n">
         <v>89.0</v>
@@ -40330,14 +40841,17 @@
       </c>
       <c r="BX172" t="n">
         <v>7.0</v>
+      </c>
+      <c r="BY172" t="n">
+        <v>8.0</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B173" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C173" t="n">
         <v>8150.0</v>
@@ -40560,14 +41074,17 @@
       </c>
       <c r="BX173" t="n">
         <v>22414.0</v>
+      </c>
+      <c r="BY173" t="n">
+        <v>22398.0</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B174" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C174" t="n">
         <v>193.0</v>
@@ -40790,14 +41307,17 @@
       </c>
       <c r="BX174" t="n">
         <v>18.0</v>
+      </c>
+      <c r="BY174" t="n">
+        <v>32.0</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B175" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C175" t="n">
         <v>22.0</v>
@@ -41020,14 +41540,17 @@
       </c>
       <c r="BX175" t="n">
         <v>122.0</v>
+      </c>
+      <c r="BY175" t="n">
+        <v>121.0</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B176" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C176" t="n">
         <v>26.0</v>
@@ -41249,15 +41772,18 @@
         <v>2.0</v>
       </c>
       <c r="BX176" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BY176" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B177" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C177" t="n">
         <v>204.0</v>
@@ -41479,15 +42005,18 @@
         <v>266.0</v>
       </c>
       <c r="BX177" t="n">
+        <v>257.0</v>
+      </c>
+      <c r="BY177" t="n">
         <v>257.0</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B178" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C178" t="n">
         <v>251.0</v>
@@ -41710,14 +42239,17 @@
       </c>
       <c r="BX178" t="n">
         <v>74.0</v>
+      </c>
+      <c r="BY178" t="n">
+        <v>75.0</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B179" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C179" t="n">
         <v>26.0</v>
@@ -41940,14 +42472,17 @@
       </c>
       <c r="BX179" t="n">
         <v>5.0</v>
+      </c>
+      <c r="BY179" t="n">
+        <v>7.0</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B180" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C180" t="n">
         <v>265.0</v>
@@ -42170,14 +42705,17 @@
       </c>
       <c r="BX180" t="n">
         <v>26.0</v>
+      </c>
+      <c r="BY180" t="n">
+        <v>17.0</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B181" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C181" t="n">
         <v>2099.0</v>
@@ -42400,14 +42938,17 @@
       </c>
       <c r="BX181" t="n">
         <v>1230.0</v>
+      </c>
+      <c r="BY181" t="n">
+        <v>1223.0</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B182" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C182" t="n">
         <v>247.0</v>
@@ -42630,14 +43171,17 @@
       </c>
       <c r="BX182" t="n">
         <v>6.0</v>
+      </c>
+      <c r="BY182" t="n">
+        <v>9.0</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B183" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C183" t="n">
         <v>48.0</v>
@@ -42860,14 +43404,17 @@
       </c>
       <c r="BX183" t="n">
         <v>14.0</v>
+      </c>
+      <c r="BY183" t="n">
+        <v>20.0</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B184" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C184" t="n">
         <v>1991.0</v>
@@ -43090,14 +43637,17 @@
       </c>
       <c r="BX184" t="n">
         <v>1396.0</v>
+      </c>
+      <c r="BY184" t="n">
+        <v>1395.0</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B185" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C185" t="n">
         <v>121.0</v>
@@ -43320,14 +43870,17 @@
       </c>
       <c r="BX185" t="n">
         <v>6.0</v>
+      </c>
+      <c r="BY185" t="n">
+        <v>12.0</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B186" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C186" t="n">
         <v>92.0</v>
@@ -43550,14 +44103,17 @@
       </c>
       <c r="BX186" t="n">
         <v>138.0</v>
+      </c>
+      <c r="BY186" t="n">
+        <v>133.0</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B187" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C187" t="n">
         <v>611.0</v>
@@ -43780,14 +44336,17 @@
       </c>
       <c r="BX187" t="n">
         <v>96.0</v>
+      </c>
+      <c r="BY187" t="n">
+        <v>105.0</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B188" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C188" t="n">
         <v>160.0</v>
@@ -44010,14 +44569,17 @@
       </c>
       <c r="BX188" t="n">
         <v>8.0</v>
+      </c>
+      <c r="BY188" t="n">
+        <v>11.0</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B189" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C189" t="n">
         <v>160.0</v>
@@ -44240,14 +44802,17 @@
       </c>
       <c r="BX189" t="n">
         <v>45.0</v>
+      </c>
+      <c r="BY189" t="n">
+        <v>65.0</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B190" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C190" t="n">
         <v>303.0</v>
@@ -44469,15 +45034,18 @@
         <v>149.0</v>
       </c>
       <c r="BX190" t="n">
+        <v>112.0</v>
+      </c>
+      <c r="BY190" t="n">
         <v>112.0</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B191" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C191" t="n">
         <v>3236.0</v>
@@ -44700,14 +45268,17 @@
       </c>
       <c r="BX191" t="n">
         <v>389.0</v>
+      </c>
+      <c r="BY191" t="n">
+        <v>364.0</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B192" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C192" t="n">
         <v>118.0</v>
@@ -44929,15 +45500,18 @@
         <v>52.0</v>
       </c>
       <c r="BX192" t="n">
+        <v>47.0</v>
+      </c>
+      <c r="BY192" t="n">
         <v>47.0</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B193" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C193" t="n">
         <v>220.0</v>
@@ -45159,15 +45733,18 @@
         <v>203.0</v>
       </c>
       <c r="BX193" t="n">
+        <v>207.0</v>
+      </c>
+      <c r="BY193" t="n">
         <v>207.0</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B194" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C194" t="n">
         <v>3899.0</v>
@@ -45390,14 +45967,17 @@
       </c>
       <c r="BX194" t="n">
         <v>468.0</v>
+      </c>
+      <c r="BY194" t="n">
+        <v>437.0</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B195" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C195" t="n">
         <v>4.0</v>
@@ -45620,14 +46200,17 @@
       </c>
       <c r="BX195" t="n">
         <v>2.0</v>
+      </c>
+      <c r="BY195" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B196" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C196" t="n">
         <v>8.0</v>
@@ -45850,14 +46433,17 @@
       </c>
       <c r="BX196" t="n">
         <v>3.0</v>
+      </c>
+      <c r="BY196" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B197" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C197" t="n">
         <v>49.0</v>
@@ -46080,14 +46666,17 @@
       </c>
       <c r="BX197" t="n">
         <v>17.0</v>
+      </c>
+      <c r="BY197" t="n">
+        <v>20.0</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B198" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C198" t="n">
         <v>255.0</v>
@@ -46310,14 +46899,17 @@
       </c>
       <c r="BX198" t="n">
         <v>32.0</v>
+      </c>
+      <c r="BY198" t="n">
+        <v>38.0</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B199" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C199" t="n">
         <v>44.0</v>
@@ -46540,14 +47132,17 @@
       </c>
       <c r="BX199" t="n">
         <v>17.0</v>
+      </c>
+      <c r="BY199" t="n">
+        <v>18.0</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B200" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C200" t="n">
         <v>7.0</v>
@@ -46769,15 +47364,18 @@
         <v>0.0</v>
       </c>
       <c r="BX200" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BY200" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B201" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C201" t="n">
         <v>121.0</v>
@@ -47000,14 +47598,17 @@
       </c>
       <c r="BX201" t="n">
         <v>215.0</v>
+      </c>
+      <c r="BY201" t="n">
+        <v>206.0</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B202" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C202" t="n">
         <v>387.0</v>
@@ -47230,14 +47831,17 @@
       </c>
       <c r="BX202" t="n">
         <v>78.0</v>
+      </c>
+      <c r="BY202" t="n">
+        <v>108.0</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B203" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C203" t="n">
         <v>78.0</v>
@@ -47460,14 +48064,17 @@
       </c>
       <c r="BX203" t="n">
         <v>1.0</v>
+      </c>
+      <c r="BY203" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B204" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C204" t="n">
         <v>292.0</v>
@@ -47690,14 +48297,17 @@
       </c>
       <c r="BX204" t="n">
         <v>370.0</v>
+      </c>
+      <c r="BY204" t="n">
+        <v>363.0</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B205" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C205" t="n">
         <v>38.0</v>
@@ -47919,15 +48529,18 @@
         <v>0.0</v>
       </c>
       <c r="BX205" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BY205" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B206" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C206" t="n">
         <v>49.0</v>
@@ -48149,15 +48762,18 @@
         <v>13.0</v>
       </c>
       <c r="BX206" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BY206" t="n">
         <v>10.0</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B207" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C207" t="n">
         <v>41.0</v>
@@ -48380,14 +48996,17 @@
       </c>
       <c r="BX207" t="n">
         <v>202.0</v>
+      </c>
+      <c r="BY207" t="n">
+        <v>198.0</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B208" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C208" t="n">
         <v>121.0</v>
@@ -48609,15 +49228,18 @@
         <v>187.0</v>
       </c>
       <c r="BX208" t="n">
+        <v>187.0</v>
+      </c>
+      <c r="BY208" t="n">
         <v>187.0</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B209" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C209" t="n">
         <v>36.0</v>
@@ -48840,14 +49462,17 @@
       </c>
       <c r="BX209" t="n">
         <v>42.0</v>
+      </c>
+      <c r="BY209" t="n">
+        <v>43.0</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B210" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C210" t="n">
         <v>18.0</v>
@@ -49070,14 +49695,17 @@
       </c>
       <c r="BX210" t="n">
         <v>11.0</v>
+      </c>
+      <c r="BY210" t="n">
+        <v>10.0</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B211" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C211" t="n">
         <v>97.0</v>
@@ -49299,15 +49927,18 @@
         <v>53.0</v>
       </c>
       <c r="BX211" t="n">
+        <v>53.0</v>
+      </c>
+      <c r="BY211" t="n">
         <v>53.0</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B212" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C212" t="n">
         <v>6.0</v>
@@ -49529,15 +50160,18 @@
         <v>0.0</v>
       </c>
       <c r="BX212" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BY212" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B213" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C213" t="n">
         <v>71.0</v>
@@ -49760,14 +50394,17 @@
       </c>
       <c r="BX213" t="n">
         <v>95.0</v>
+      </c>
+      <c r="BY213" t="n">
+        <v>89.0</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B214" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C214" t="n">
         <v>9.0</v>
@@ -49990,14 +50627,17 @@
       </c>
       <c r="BX214" t="n">
         <v>19.0</v>
+      </c>
+      <c r="BY214" t="n">
+        <v>22.0</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B215" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C215" t="n">
         <v>4596.0</v>
@@ -50220,14 +50860,17 @@
       </c>
       <c r="BX215" t="n">
         <v>5800.0</v>
+      </c>
+      <c r="BY215" t="n">
+        <v>5795.0</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B216" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C216" t="n">
         <v>48.0</v>
@@ -50450,14 +51093,17 @@
       </c>
       <c r="BX216" t="n">
         <v>0.0</v>
+      </c>
+      <c r="BY216" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B217" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C217" t="n">
         <v>654.0</v>
@@ -50680,14 +51326,17 @@
       </c>
       <c r="BX217" t="n">
         <v>128.0</v>
+      </c>
+      <c r="BY217" t="n">
+        <v>122.0</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B218" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C218" t="n">
         <v>84.0</v>
@@ -50910,14 +51559,17 @@
       </c>
       <c r="BX218" t="n">
         <v>3.0</v>
+      </c>
+      <c r="BY218" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B219" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C219" t="n">
         <v>18.0</v>
@@ -51139,15 +51791,18 @@
         <v>2.0</v>
       </c>
       <c r="BX219" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BY219" t="n">
         <v>2.0</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B220" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C220" t="n">
         <v>5.0</v>
@@ -51369,15 +52024,18 @@
         <v>0.0</v>
       </c>
       <c r="BX220" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BY220" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B221" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C221" t="n">
         <v>58.0</v>
@@ -51600,14 +52258,17 @@
       </c>
       <c r="BX221" t="n">
         <v>15.0</v>
+      </c>
+      <c r="BY221" t="n">
+        <v>10.0</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B222" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C222" t="n">
         <v>159.0</v>
@@ -51830,14 +52491,17 @@
       </c>
       <c r="BX222" t="n">
         <v>5.0</v>
+      </c>
+      <c r="BY222" t="n">
+        <v>14.0</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B223" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C223" t="n">
         <v>31380.0</v>
@@ -52060,14 +52724,17 @@
       </c>
       <c r="BX223" t="n">
         <v>20837.0</v>
+      </c>
+      <c r="BY223" t="n">
+        <v>19502.0</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B224" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C224" t="n">
         <v>2592.0</v>
@@ -52290,14 +52957,17 @@
       </c>
       <c r="BX224" t="n">
         <v>818.0</v>
+      </c>
+      <c r="BY224" t="n">
+        <v>794.0</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B225" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C225" t="n">
         <v>11.0</v>
@@ -52519,15 +53189,18 @@
         <v>0.0</v>
       </c>
       <c r="BX225" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BY225" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B226" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C226" t="n">
         <v>312.0</v>
@@ -52750,14 +53423,17 @@
       </c>
       <c r="BX226" t="n">
         <v>13.0</v>
+      </c>
+      <c r="BY226" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B227" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C227" t="n">
         <v>0.0</v>
@@ -52979,15 +53655,18 @@
         <v>0.0</v>
       </c>
       <c r="BX227" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BY227" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B228" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C228" t="n">
         <v>179.0</v>
@@ -53210,14 +53889,17 @@
       </c>
       <c r="BX228" t="n">
         <v>403.0</v>
+      </c>
+      <c r="BY228" t="n">
+        <v>391.0</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B229" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C229" t="n">
         <v>1510.0</v>
@@ -53440,14 +54122,17 @@
       </c>
       <c r="BX229" t="n">
         <v>260.0</v>
+      </c>
+      <c r="BY229" t="n">
+        <v>241.0</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B230" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C230" t="n">
         <v>3091.0</v>
@@ -53670,14 +54355,17 @@
       </c>
       <c r="BX230" t="n">
         <v>1154.0</v>
+      </c>
+      <c r="BY230" t="n">
+        <v>1141.0</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B231" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C231" t="n">
         <v>17.0</v>
@@ -53900,14 +54588,17 @@
       </c>
       <c r="BX231" t="n">
         <v>58.0</v>
+      </c>
+      <c r="BY231" t="n">
+        <v>59.0</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B232" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C232" t="n">
         <v>124.0</v>
@@ -54130,14 +54821,17 @@
       </c>
       <c r="BX232" t="n">
         <v>26.0</v>
+      </c>
+      <c r="BY232" t="n">
+        <v>23.0</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B233" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C233" t="n">
         <v>165.0</v>
@@ -54360,14 +55054,17 @@
       </c>
       <c r="BX233" t="n">
         <v>469.0</v>
+      </c>
+      <c r="BY233" t="n">
+        <v>459.0</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B234" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C234" t="n">
         <v>25.0</v>
@@ -54590,14 +55287,17 @@
       </c>
       <c r="BX234" t="n">
         <v>5.0</v>
+      </c>
+      <c r="BY234" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B235" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C235" t="n">
         <v>70.0</v>
@@ -54820,14 +55520,17 @@
       </c>
       <c r="BX235" t="n">
         <v>26.0</v>
+      </c>
+      <c r="BY235" t="n">
+        <v>34.0</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B236" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C236" t="n">
         <v>323.0</v>
@@ -55050,14 +55753,17 @@
       </c>
       <c r="BX236" t="n">
         <v>501.0</v>
+      </c>
+      <c r="BY236" t="n">
+        <v>202.0</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B237" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C237" t="n">
         <v>1023.0</v>
@@ -55280,14 +55986,17 @@
       </c>
       <c r="BX237" t="n">
         <v>1363.0</v>
+      </c>
+      <c r="BY237" t="n">
+        <v>1362.0</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B238" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C238" t="n">
         <v>243.0</v>
@@ -55510,14 +56219,17 @@
       </c>
       <c r="BX238" t="n">
         <v>368.0</v>
+      </c>
+      <c r="BY238" t="n">
+        <v>324.0</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B239" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C239" t="n">
         <v>230.0</v>
@@ -55740,14 +56452,17 @@
       </c>
       <c r="BX239" t="n">
         <v>281.0</v>
+      </c>
+      <c r="BY239" t="n">
+        <v>152.0</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B240" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C240" t="n">
         <v>135.0</v>
@@ -55970,14 +56685,17 @@
       </c>
       <c r="BX240" t="n">
         <v>78.0</v>
+      </c>
+      <c r="BY240" t="n">
+        <v>70.0</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B241" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C241" t="n">
         <v>125.0</v>
@@ -56200,14 +56918,17 @@
       </c>
       <c r="BX241" t="n">
         <v>56.0</v>
+      </c>
+      <c r="BY241" t="n">
+        <v>48.0</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B242" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C242" t="n">
         <v>189.0</v>
@@ -56430,14 +57151,17 @@
       </c>
       <c r="BX242" t="n">
         <v>454.0</v>
+      </c>
+      <c r="BY242" t="n">
+        <v>448.0</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B243" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C243" t="n">
         <v>3689.0</v>
@@ -56660,14 +57384,17 @@
       </c>
       <c r="BX243" t="n">
         <v>1532.0</v>
+      </c>
+      <c r="BY243" t="n">
+        <v>1668.0</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B244" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C244" t="n">
         <v>131.0</v>
@@ -56890,14 +57617,17 @@
       </c>
       <c r="BX244" t="n">
         <v>73.0</v>
+      </c>
+      <c r="BY244" t="n">
+        <v>59.0</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B245" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C245" t="n">
         <v>79.0</v>
@@ -57120,14 +57850,17 @@
       </c>
       <c r="BX245" t="n">
         <v>14.0</v>
+      </c>
+      <c r="BY245" t="n">
+        <v>12.0</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B246" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C246" t="n">
         <v>2591.0</v>
@@ -57350,14 +58083,17 @@
       </c>
       <c r="BX246" t="n">
         <v>423.0</v>
+      </c>
+      <c r="BY246" t="n">
+        <v>345.0</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B247" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C247" t="n">
         <v>41.0</v>
@@ -57580,14 +58316,17 @@
       </c>
       <c r="BX247" t="n">
         <v>3.0</v>
+      </c>
+      <c r="BY247" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B248" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C248" t="n">
         <v>146.0</v>
@@ -57810,14 +58549,17 @@
       </c>
       <c r="BX248" t="n">
         <v>66.0</v>
+      </c>
+      <c r="BY248" t="n">
+        <v>43.0</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B249" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C249" t="n">
         <v>1135.0</v>
@@ -58039,15 +58781,18 @@
         <v>915.0</v>
       </c>
       <c r="BX249" t="n">
+        <v>915.0</v>
+      </c>
+      <c r="BY249" t="n">
         <v>915.0</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B250" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C250" t="n">
         <v>176.0</v>
@@ -58270,14 +59015,17 @@
       </c>
       <c r="BX250" t="n">
         <v>44.0</v>
+      </c>
+      <c r="BY250" t="n">
+        <v>57.0</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B251" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C251" t="n">
         <v>126.0</v>
@@ -58500,14 +59248,17 @@
       </c>
       <c r="BX251" t="n">
         <v>15.0</v>
+      </c>
+      <c r="BY251" t="n">
+        <v>13.0</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B252" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C252" t="n">
         <v>350.0</v>
@@ -58730,14 +59481,17 @@
       </c>
       <c r="BX252" t="n">
         <v>40.0</v>
+      </c>
+      <c r="BY252" t="n">
+        <v>53.0</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B253" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C253" t="n">
         <v>357.0</v>
@@ -58959,15 +59713,18 @@
         <v>1024.0</v>
       </c>
       <c r="BX253" t="n">
+        <v>1037.0</v>
+      </c>
+      <c r="BY253" t="n">
         <v>1037.0</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B254" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C254" t="n">
         <v>112.0</v>
@@ -59189,15 +59946,18 @@
         <v>8.0</v>
       </c>
       <c r="BX254" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="BY254" t="n">
         <v>8.0</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B255" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C255" t="n">
         <v>68.0</v>
@@ -59420,14 +60180,17 @@
       </c>
       <c r="BX255" t="n">
         <v>4.0</v>
+      </c>
+      <c r="BY255" t="n">
+        <v>8.0</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B256" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C256" t="n">
         <v>180.0</v>
@@ -59650,14 +60413,17 @@
       </c>
       <c r="BX256" t="n">
         <v>90.0</v>
+      </c>
+      <c r="BY256" t="n">
+        <v>84.0</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B257" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C257" t="n">
         <v>35.0</v>
@@ -59880,14 +60646,17 @@
       </c>
       <c r="BX257" t="n">
         <v>28.0</v>
+      </c>
+      <c r="BY257" t="n">
+        <v>22.0</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B258" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C258"/>
       <c r="D258"/>
@@ -59963,13 +60732,14 @@
       <c r="BV258"/>
       <c r="BW258"/>
       <c r="BX258"/>
+      <c r="BY258"/>
     </row>
     <row r="259">
       <c r="A259" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B259" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C259"/>
       <c r="D259"/>
@@ -60045,13 +60815,14 @@
       <c r="BV259"/>
       <c r="BW259"/>
       <c r="BX259"/>
+      <c r="BY259"/>
     </row>
     <row r="260">
       <c r="A260" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B260" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C260"/>
       <c r="D260"/>
@@ -60127,13 +60898,14 @@
       <c r="BV260"/>
       <c r="BW260"/>
       <c r="BX260"/>
+      <c r="BY260"/>
     </row>
     <row r="261">
       <c r="A261" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B261" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C261"/>
       <c r="D261"/>
@@ -60209,13 +60981,14 @@
       <c r="BV261"/>
       <c r="BW261"/>
       <c r="BX261"/>
+      <c r="BY261"/>
     </row>
     <row r="262">
       <c r="A262" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B262" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C262"/>
       <c r="D262"/>
@@ -60291,13 +61064,14 @@
       <c r="BV262"/>
       <c r="BW262"/>
       <c r="BX262"/>
+      <c r="BY262"/>
     </row>
     <row r="263">
       <c r="A263" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B263" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C263"/>
       <c r="D263"/>
@@ -60373,13 +61147,14 @@
       <c r="BV263"/>
       <c r="BW263"/>
       <c r="BX263"/>
+      <c r="BY263"/>
     </row>
     <row r="264">
       <c r="A264" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B264" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C264"/>
       <c r="D264"/>
@@ -60455,13 +61230,14 @@
       <c r="BV264"/>
       <c r="BW264"/>
       <c r="BX264"/>
+      <c r="BY264"/>
     </row>
     <row r="265">
       <c r="A265" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B265" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C265"/>
       <c r="D265"/>
@@ -60537,13 +61313,14 @@
       <c r="BV265"/>
       <c r="BW265"/>
       <c r="BX265"/>
+      <c r="BY265"/>
     </row>
     <row r="266">
       <c r="A266" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B266" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C266"/>
       <c r="D266"/>
@@ -60619,13 +61396,14 @@
       <c r="BV266"/>
       <c r="BW266"/>
       <c r="BX266"/>
+      <c r="BY266"/>
     </row>
     <row r="267">
       <c r="A267" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B267" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C267"/>
       <c r="D267"/>
@@ -60701,13 +61479,14 @@
       <c r="BV267"/>
       <c r="BW267"/>
       <c r="BX267"/>
+      <c r="BY267"/>
     </row>
     <row r="268">
       <c r="A268" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B268" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C268"/>
       <c r="D268"/>
@@ -60783,13 +61562,14 @@
       <c r="BV268"/>
       <c r="BW268"/>
       <c r="BX268"/>
+      <c r="BY268"/>
     </row>
     <row r="269">
       <c r="A269" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B269" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C269"/>
       <c r="D269"/>
@@ -60865,13 +61645,14 @@
       <c r="BV269"/>
       <c r="BW269"/>
       <c r="BX269"/>
+      <c r="BY269"/>
     </row>
     <row r="270">
       <c r="A270" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B270" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C270"/>
       <c r="D270"/>
@@ -60947,13 +61728,14 @@
       <c r="BV270"/>
       <c r="BW270"/>
       <c r="BX270"/>
+      <c r="BY270"/>
     </row>
     <row r="271">
       <c r="A271" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B271" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C271"/>
       <c r="D271"/>
@@ -61029,13 +61811,14 @@
       <c r="BV271"/>
       <c r="BW271"/>
       <c r="BX271"/>
+      <c r="BY271"/>
     </row>
     <row r="272">
       <c r="A272" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B272" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C272"/>
       <c r="D272"/>
@@ -61111,13 +61894,14 @@
       <c r="BV272"/>
       <c r="BW272"/>
       <c r="BX272"/>
+      <c r="BY272"/>
     </row>
     <row r="273">
       <c r="A273" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B273" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C273"/>
       <c r="D273"/>
@@ -61193,13 +61977,14 @@
       <c r="BV273"/>
       <c r="BW273"/>
       <c r="BX273"/>
+      <c r="BY273"/>
     </row>
     <row r="274">
       <c r="A274" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B274" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C274"/>
       <c r="D274"/>
@@ -61275,13 +62060,14 @@
       <c r="BV274"/>
       <c r="BW274"/>
       <c r="BX274"/>
+      <c r="BY274"/>
     </row>
     <row r="275">
       <c r="A275" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B275" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C275"/>
       <c r="D275"/>
@@ -61357,13 +62143,14 @@
       <c r="BV275"/>
       <c r="BW275"/>
       <c r="BX275"/>
+      <c r="BY275"/>
     </row>
     <row r="276">
       <c r="A276" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B276" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C276"/>
       <c r="D276"/>
@@ -61439,13 +62226,14 @@
       <c r="BV276"/>
       <c r="BW276"/>
       <c r="BX276"/>
+      <c r="BY276"/>
     </row>
     <row r="277">
       <c r="A277" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B277" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C277"/>
       <c r="D277"/>
@@ -61521,13 +62309,14 @@
       <c r="BV277"/>
       <c r="BW277"/>
       <c r="BX277"/>
+      <c r="BY277"/>
     </row>
     <row r="278">
       <c r="A278" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B278" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C278"/>
       <c r="D278"/>
@@ -61603,13 +62392,14 @@
       <c r="BV278"/>
       <c r="BW278"/>
       <c r="BX278"/>
+      <c r="BY278"/>
     </row>
     <row r="279">
       <c r="A279" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B279" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C279"/>
       <c r="D279"/>
@@ -61685,6 +62475,7 @@
       <c r="BV279"/>
       <c r="BW279"/>
       <c r="BX279"/>
+      <c r="BY279"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
